--- a/mapping/Combined Cleaned Vocabulary_BAO.xlsx
+++ b/mapping/Combined Cleaned Vocabulary_BAO.xlsx
@@ -796,7 +796,7 @@
     <t>["An area is a 2-D extent quality inhering in a bearer by virtue of the bearer's two dimensional extent. [PATO]"]</t>
   </si>
   <si>
-    <t>["A morphological quality inhering in a bearer by virtue of the bearer's ratios of distances between its features (points, edges, surfaces and also holes etc). [PATO]"]</t>
+    <t>['Shapes are invariant on size transformations. Shapes can be subdivided into 2D and 3D shapes, We can also make a distinction between shapes of complete self-connected objects, and shapes of parts of objects.']</t>
   </si>
   <si>
     <t>["A morphology quality inhering in a bearer by virtue of the bearer's physical magnitude. [PATO]"]</t>
